--- a/data/full_data_set.xlsx
+++ b/data/full_data_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\OneDrive\Desktop\UGA\MSBA Program\MIST 5635\Final Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1622CD-6C1B-4867-8C4D-B8FED3A579D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C81B5A-100F-4DA2-B4C2-99D2DED06AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{889387FC-117F-43D7-9D7A-EA3C7D63ED93}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="820">
   <si>
     <t>Name</t>
   </si>
@@ -2498,9 +2498,6 @@
   </si>
   <si>
     <t>Norte Vista</t>
-  </si>
-  <si>
-    <t>Yards per game Avf</t>
   </si>
 </sst>
 </file>
@@ -2658,6 +2655,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2673,7 +2671,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2990,11 +2987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DB926A-DF55-4645-B5AA-7D0FFA55D305}">
-  <dimension ref="A1:BO208"/>
+  <dimension ref="A1:BO206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="49" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF207" sqref="AF207"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29745,161 +29742,7 @@
       </c>
     </row>
     <row r="206" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F206">
-        <f>AVERAGE(F2:F204)</f>
-        <v>70.9692118226601</v>
-      </c>
-      <c r="G206">
-        <f>AVERAGE(G2:G204)</f>
-        <v>195.76847290640393</v>
-      </c>
-      <c r="H206">
-        <f t="shared" ref="H206:AE206" si="2">AVERAGE(H2:H204)</f>
-        <v>10.415204678362572</v>
-      </c>
-      <c r="I206">
-        <f t="shared" si="2"/>
-        <v>163.85964912280701</v>
-      </c>
-      <c r="J206">
-        <f t="shared" si="2"/>
-        <v>1443.3976608187133</v>
-      </c>
-      <c r="K206">
-        <f t="shared" si="2"/>
-        <v>8.7338011695906381</v>
-      </c>
-      <c r="L206" s="11">
-        <f t="shared" si="2"/>
-        <v>135.98362573099419</v>
-      </c>
-      <c r="M206">
-        <f t="shared" si="2"/>
-        <v>65.362573099415201</v>
-      </c>
-      <c r="N206">
-        <f t="shared" si="2"/>
-        <v>6.4090909090909092</v>
-      </c>
-      <c r="O206">
-        <f t="shared" si="2"/>
-        <v>19.741176470588236</v>
-      </c>
-      <c r="P206">
-        <f t="shared" si="2"/>
-        <v>11.052941176470588</v>
-      </c>
-      <c r="Q206">
-        <f t="shared" si="2"/>
-        <v>148.24705882352941</v>
-      </c>
-      <c r="R206">
-        <f t="shared" si="2"/>
-        <v>1143.5341176470588</v>
-      </c>
-      <c r="S206">
-        <f t="shared" si="2"/>
-        <v>9.0441176470588189</v>
-      </c>
-      <c r="T206">
-        <f t="shared" si="2"/>
-        <v>111.38294117647055</v>
-      </c>
-      <c r="U206">
-        <f t="shared" si="2"/>
-        <v>55.923529411764704</v>
-      </c>
-      <c r="V206">
-        <f t="shared" si="2"/>
-        <v>5.4161073825503356</v>
-      </c>
-      <c r="W206">
-        <f t="shared" si="2"/>
-        <v>14.8562874251497</v>
-      </c>
-      <c r="X206">
-        <f t="shared" si="2"/>
-        <v>10.578125</v>
-      </c>
-      <c r="Y206">
-        <f t="shared" si="2"/>
-        <v>98.5</v>
-      </c>
-      <c r="Z206">
-        <f t="shared" si="2"/>
-        <v>668.02890624999998</v>
-      </c>
-      <c r="AA206">
-        <f t="shared" si="2"/>
-        <v>7.8340625000000026</v>
-      </c>
-      <c r="AB206">
-        <f t="shared" si="2"/>
-        <v>66.463281249999994</v>
-      </c>
-      <c r="AC206">
-        <f t="shared" si="2"/>
-        <v>47.5703125</v>
-      </c>
-      <c r="AD206">
-        <f t="shared" si="2"/>
-        <v>3.3207547169811322</v>
-      </c>
-      <c r="AE206">
-        <f t="shared" si="2"/>
-        <v>8.8800000000000008</v>
-      </c>
-    </row>
-    <row r="207" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="L207" t="s">
-        <v>820</v>
-      </c>
-      <c r="AF207">
-        <f>COUNTIF(AF2:AF203,"")</f>
-        <v>140</v>
-      </c>
-      <c r="AG207">
-        <f t="shared" ref="AG207:AM207" si="3">COUNTIF(AG2:AG203,"")</f>
-        <v>140</v>
-      </c>
-      <c r="AH207">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="AI207">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="AJ207">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="AK207">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="AL207">
-        <f t="shared" si="3"/>
-        <v>159</v>
-      </c>
-      <c r="AM207">
-        <f t="shared" si="3"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="208" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F208">
-        <f>AVERAGEIF(E2:E204, "Yes",F2:F204)</f>
-        <v>71.075242718446603</v>
-      </c>
-      <c r="G208">
-        <f>AVERAGEIF(E2:E204, "Yes",G2:G204)</f>
-        <v>198.25242718446603</v>
-      </c>
-      <c r="L208">
-        <f>AVERAGEIF(E2:E204, "Yes",L2:L204)</f>
-        <v>152.87613636363633</v>
-      </c>
+      <c r="L206" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29918,12 +29761,12 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="A2" s="10"/>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -29966,7 +29809,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>570</v>
       </c>
       <c r="B8" t="s">
@@ -29974,7 +29817,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" t="s">
         <v>577</v>
       </c>
@@ -30092,7 +29935,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>555</v>
       </c>
       <c r="B24" t="s">
@@ -30100,10 +29943,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
@@ -30329,12 +30172,12 @@
       </c>
     </row>
     <row r="65" spans="1:1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="7" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="7"/>
+      <c r="A66" s="8"/>
     </row>
     <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
@@ -30392,12 +30235,12 @@
       </c>
     </row>
     <row r="78" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="7" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="7"/>
+      <c r="A79" s="8"/>
     </row>
     <row r="80" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
@@ -30425,12 +30268,12 @@
       </c>
     </row>
     <row r="85" spans="1:1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="7" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="7"/>
+      <c r="A86" s="8"/>
     </row>
     <row r="87" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
